--- a/training_features/2024-12-06_00-04-14/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-12-06_00-04-14/scores_llama3.1_8b_0-shot_500.xlsx
@@ -543,52 +543,52 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="E2" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.059</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.422</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.077</v>
-      </c>
       <c r="S2" t="n">
-        <v>0.419</v>
+        <v>0.465</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
@@ -607,52 +607,52 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.028</v>
+        <v>0.033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.845</v>
+        <v>0.751</v>
       </c>
       <c r="H3" t="n">
-        <v>2.135855351951924e+19</v>
+        <v>0.002</v>
       </c>
       <c r="I3" t="n">
-        <v>1120094627.036</v>
+        <v>0.04</v>
       </c>
       <c r="J3" t="n">
-        <v>4621531512.336</v>
+        <v>0.05</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.240970251061907e+21</v>
+        <v>0.597</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.801</v>
       </c>
       <c r="P3" t="n">
         <v>0.002</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.029</v>
+        <v>0.037</v>
       </c>
       <c r="R3" t="n">
-        <v>0.039</v>
+        <v>0.045</v>
       </c>
       <c r="S3" t="n">
-        <v>0.839</v>
+        <v>0.662</v>
       </c>
       <c r="T3" t="n">
         <v>3</v>
@@ -671,52 +671,52 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E4" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="F4" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="G4" t="n">
-        <v>0.466</v>
+        <v>0.039</v>
       </c>
       <c r="H4" t="n">
         <v>0.004</v>
       </c>
       <c r="I4" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.147</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.041</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.081</v>
       </c>
       <c r="P4" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="S4" t="n">
-        <v>0.455</v>
+        <v>0.035</v>
       </c>
       <c r="T4" t="n">
         <v>4</v>
@@ -735,52 +735,52 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.033</v>
+        <v>0.025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.043</v>
+        <v>0.031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.776</v>
+        <v>0.819</v>
       </c>
       <c r="H5" t="n">
-        <v>3.02805253346212e+19</v>
+        <v>1.232701842065906e+17</v>
       </c>
       <c r="I5" t="n">
-        <v>997427548.946</v>
+        <v>59346484.866</v>
       </c>
       <c r="J5" t="n">
-        <v>5502774330.701</v>
+        <v>351098539.169</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.618604285914699e+21</v>
+        <v>-2.293991644178114e+19</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.828</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.034</v>
+        <v>0.024</v>
       </c>
       <c r="R5" t="n">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="S5" t="n">
-        <v>0.761</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="T5" t="n">
         <v>4</v>
@@ -799,52 +799,52 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E6" t="n">
-        <v>0.039</v>
+        <v>0.048</v>
       </c>
       <c r="F6" t="n">
-        <v>0.051</v>
+        <v>0.062</v>
       </c>
       <c r="G6" t="n">
-        <v>0.472</v>
+        <v>0.402</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.04</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="P6" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="R6" t="n">
-        <v>0.052</v>
+        <v>0.065</v>
       </c>
       <c r="S6" t="n">
-        <v>0.457</v>
+        <v>0.347</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -863,52 +863,52 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E7" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="H7" t="n">
+        <v>307140276741.591</v>
+      </c>
+      <c r="I7" t="n">
+        <v>83549.178</v>
+      </c>
+      <c r="J7" t="n">
+        <v>554202.379</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-44927813650159.64</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.034</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.543545695716643e+18</v>
-      </c>
-      <c r="I7" t="n">
-        <v>257701323.884</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1594849740.796</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-4.112019658235794e+20</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.041</v>
-      </c>
       <c r="S7" t="n">
-        <v>0.727</v>
+        <v>0.827</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -927,52 +927,52 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.044</v>
       </c>
       <c r="G8" t="n">
-        <v>0.51</v>
+        <v>0.551</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="J8" t="n">
-        <v>0.055</v>
+        <v>0.044</v>
       </c>
       <c r="K8" t="n">
-        <v>0.508</v>
+        <v>0.548</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.507</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="R8" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="S8" t="n">
-        <v>0.503</v>
+        <v>0.529</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -991,52 +991,52 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.027</v>
+        <v>0.034</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.041</v>
       </c>
       <c r="G9" t="n">
-        <v>0.881</v>
+        <v>0.85</v>
       </c>
       <c r="H9" t="n">
         <v>0.001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.024</v>
+        <v>0.029</v>
       </c>
       <c r="J9" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.031</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.026</v>
-      </c>
       <c r="R9" t="n">
-        <v>0.034</v>
+        <v>0.039</v>
       </c>
       <c r="S9" t="n">
-        <v>0.886</v>
+        <v>0.861</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1055,52 +1055,52 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E10" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="G10" t="n">
-        <v>0.393</v>
+        <v>0.428</v>
       </c>
       <c r="H10" t="n">
         <v>0.005</v>
       </c>
       <c r="I10" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="J10" t="n">
         <v>0.068</v>
       </c>
       <c r="K10" t="n">
-        <v>0.346</v>
+        <v>0.418</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.493</v>
       </c>
       <c r="P10" t="n">
         <v>0.005</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="R10" t="n">
         <v>0.068</v>
       </c>
       <c r="S10" t="n">
-        <v>0.353</v>
+        <v>0.415</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1122,49 +1122,49 @@
         <v>0.002</v>
       </c>
       <c r="E11" t="n">
-        <v>0.029</v>
+        <v>0.032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="G11" t="n">
-        <v>0.877</v>
+        <v>0.854</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I11" t="n">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="J11" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="K11" t="n">
-        <v>0.884</v>
+        <v>0.861</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.961</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="R11" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="S11" t="n">
-        <v>0.883</v>
+        <v>0.857</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1186,49 +1186,49 @@
         <v>0.003</v>
       </c>
       <c r="E12" t="n">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="F12" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="G12" t="n">
-        <v>0.328</v>
+        <v>0.476</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I12" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="J12" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="K12" t="n">
-        <v>0.309</v>
+        <v>0.472</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="P12" t="n">
         <v>0.003</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="R12" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="S12" t="n">
-        <v>0.349</v>
+        <v>0.475</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1247,52 +1247,52 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.893</v>
+        <v>0.842</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="J13" t="n">
-        <v>0.038</v>
+        <v>0.043</v>
       </c>
       <c r="K13" t="n">
-        <v>0.875</v>
+        <v>0.821</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.899</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="R13" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="S13" t="n">
-        <v>0.892</v>
+        <v>0.843</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1311,52 +1311,52 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E14" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="G14" t="n">
-        <v>0.448</v>
+        <v>0.408</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I14" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="J14" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="K14" t="n">
-        <v>0.457</v>
+        <v>0.396</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.414</v>
       </c>
       <c r="P14" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="Q14" t="n">
         <v>0.044</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="S14" t="n">
-        <v>0.452</v>
+        <v>0.405</v>
       </c>
       <c r="T14" t="n">
         <v>9</v>
@@ -1375,52 +1375,52 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="F15" t="n">
-        <v>0.042</v>
+        <v>0.037</v>
       </c>
       <c r="G15" t="n">
-        <v>0.86</v>
+        <v>0.844</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="J15" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
       <c r="K15" t="n">
-        <v>0.862</v>
+        <v>0.838</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.971</v>
       </c>
       <c r="P15" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="R15" t="n">
-        <v>0.042</v>
+        <v>0.037</v>
       </c>
       <c r="S15" t="n">
-        <v>0.86</v>
+        <v>0.846</v>
       </c>
       <c r="T15" t="n">
         <v>9</v>
@@ -1439,52 +1439,52 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.003</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.623</v>
       </c>
       <c r="P16" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="R16" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="S16" t="n">
-        <v>0.432</v>
+        <v>0.456</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1503,52 +1503,52 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G17" t="n">
-        <v>0.891</v>
+        <v>0.888</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.031</v>
+        <v>0.027</v>
       </c>
       <c r="J17" t="n">
-        <v>0.039</v>
+        <v>0.034</v>
       </c>
       <c r="K17" t="n">
-        <v>0.895</v>
+        <v>0.892</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.966</v>
       </c>
       <c r="P17" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="R17" t="n">
-        <v>0.039</v>
+        <v>0.034</v>
       </c>
       <c r="S17" t="n">
-        <v>0.896</v>
+        <v>0.894</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1567,52 +1567,52 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E18" t="n">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>0.067</v>
       </c>
       <c r="G18" t="n">
-        <v>0.438</v>
+        <v>0.186</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="I18" t="n">
-        <v>0.044</v>
+        <v>0.051</v>
       </c>
       <c r="J18" t="n">
-        <v>0.059</v>
+        <v>0.068</v>
       </c>
       <c r="K18" t="n">
-        <v>0.458</v>
+        <v>0.159</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="P18" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.046</v>
+        <v>0.051</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="S18" t="n">
-        <v>0.427</v>
+        <v>0.153</v>
       </c>
       <c r="T18" t="n">
         <v>11</v>
@@ -1631,52 +1631,52 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="F19" t="n">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="G19" t="n">
-        <v>0.884</v>
+        <v>0.908</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="K19" t="n">
-        <v>0.889</v>
+        <v>0.916</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.949</v>
       </c>
       <c r="P19" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="S19" t="n">
-        <v>0.89</v>
+        <v>0.907</v>
       </c>
       <c r="T19" t="n">
         <v>11</v>
@@ -1695,52 +1695,52 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.003</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="R20" t="n">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="S20" t="n">
-        <v>0.61</v>
+        <v>0.439</v>
       </c>
       <c r="T20" t="n">
         <v>12</v>
@@ -1762,49 +1762,49 @@
         <v>0.001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="F21" t="n">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
       <c r="G21" t="n">
-        <v>0.91</v>
+        <v>0.892</v>
       </c>
       <c r="H21" t="n">
         <v>0.001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="J21" t="n">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="K21" t="n">
-        <v>0.902</v>
+        <v>0.899</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="P21" t="n">
         <v>0.001</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="R21" t="n">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
       <c r="S21" t="n">
-        <v>0.91</v>
+        <v>0.891</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -1826,49 +1826,49 @@
         <v>0.004</v>
       </c>
       <c r="E22" t="n">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="G22" t="n">
-        <v>0.574</v>
+        <v>0.538</v>
       </c>
       <c r="H22" t="n">
         <v>0.004</v>
       </c>
       <c r="I22" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="J22" t="n">
-        <v>0.059</v>
+        <v>0.064</v>
       </c>
       <c r="K22" t="n">
-        <v>0.579</v>
+        <v>0.544</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.725</v>
       </c>
       <c r="P22" t="n">
         <v>0.004</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="S22" t="n">
-        <v>0.579</v>
+        <v>0.543</v>
       </c>
       <c r="T22" t="n">
         <v>13</v>
@@ -1887,52 +1887,52 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="F23" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="G23" t="n">
-        <v>0.894</v>
+        <v>0.89</v>
       </c>
       <c r="H23" t="n">
         <v>0.001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="J23" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="K23" t="n">
-        <v>0.901</v>
+        <v>0.891</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.946</v>
       </c>
       <c r="P23" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="R23" t="n">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="S23" t="n">
-        <v>0.894</v>
+        <v>0.893</v>
       </c>
       <c r="T23" t="n">
         <v>13</v>
@@ -1951,52 +1951,52 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E24" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.045</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.047</v>
-      </c>
       <c r="J24" t="n">
-        <v>0.062</v>
+        <v>0.058</v>
       </c>
       <c r="K24" t="n">
-        <v>0.42</v>
+        <v>0.485</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.583</v>
       </c>
       <c r="P24" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="Q24" t="n">
         <v>0.046</v>
       </c>
       <c r="R24" t="n">
-        <v>0.062</v>
+        <v>0.059</v>
       </c>
       <c r="S24" t="n">
-        <v>0.426</v>
+        <v>0.471</v>
       </c>
       <c r="T24" t="n">
         <v>14</v>
@@ -2018,13 +2018,13 @@
         <v>0.001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="F25" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="G25" t="n">
-        <v>0.909</v>
+        <v>0.861</v>
       </c>
       <c r="H25" t="n">
         <v>0.001</v>
@@ -2036,31 +2036,31 @@
         <v>0.037</v>
       </c>
       <c r="K25" t="n">
-        <v>0.902</v>
+        <v>0.865</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.961</v>
       </c>
       <c r="P25" t="n">
         <v>0.001</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="R25" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="S25" t="n">
-        <v>0.907</v>
+        <v>0.862</v>
       </c>
       <c r="T25" t="n">
         <v>14</v>
@@ -2079,52 +2079,52 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E26" t="n">
-        <v>0.032</v>
+        <v>0.045</v>
       </c>
       <c r="F26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0.044</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.031</v>
-      </c>
       <c r="R26" t="n">
-        <v>0.044</v>
+        <v>0.06</v>
       </c>
       <c r="S26" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.473</v>
       </c>
       <c r="T26" t="n">
         <v>3</v>
@@ -2143,52 +2143,52 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E27" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.035</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.042</v>
-      </c>
       <c r="K27" t="n">
-        <v>0.857</v>
+        <v>0.795</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.031</v>
+        <v>0.025</v>
       </c>
       <c r="R27" t="n">
-        <v>0.042</v>
+        <v>0.033</v>
       </c>
       <c r="S27" t="n">
-        <v>0.854</v>
+        <v>0.819</v>
       </c>
       <c r="T27" t="n">
         <v>3</v>
@@ -2207,52 +2207,52 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E28" t="n">
-        <v>0.051</v>
+        <v>0.056</v>
       </c>
       <c r="F28" t="n">
-        <v>0.066</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>0.368</v>
+        <v>0.289</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="I28" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.054</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.575</v>
       </c>
       <c r="P28" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="R28" t="n">
-        <v>0.066</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>0.361</v>
+        <v>0.293</v>
       </c>
       <c r="T28" t="n">
         <v>4</v>
@@ -2274,49 +2274,49 @@
         <v>0.001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.027</v>
+        <v>0.033</v>
       </c>
       <c r="F29" t="n">
-        <v>0.033</v>
+        <v>0.039</v>
       </c>
       <c r="G29" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="J29" t="n">
         <v>0.039</v>
       </c>
       <c r="K29" t="n">
-        <v>0.619</v>
+        <v>0.706</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.944</v>
       </c>
       <c r="P29" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="R29" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.697</v>
       </c>
       <c r="T29" t="n">
         <v>4</v>
@@ -2338,49 +2338,49 @@
         <v>0.004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.051</v>
+        <v>0.044</v>
       </c>
       <c r="F30" t="n">
-        <v>0.067</v>
+        <v>0.059</v>
       </c>
       <c r="G30" t="n">
-        <v>0.312</v>
+        <v>0.163</v>
       </c>
       <c r="H30" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I30" t="n">
-        <v>0.056</v>
+        <v>0.046</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.061</v>
       </c>
       <c r="K30" t="n">
-        <v>0.201</v>
+        <v>0.121</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="P30" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.053</v>
+        <v>0.045</v>
       </c>
       <c r="R30" t="n">
-        <v>0.068</v>
+        <v>0.06</v>
       </c>
       <c r="S30" t="n">
-        <v>0.283</v>
+        <v>0.133</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -2402,49 +2402,49 @@
         <v>0.001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.024</v>
+        <v>0.031</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="G31" t="n">
-        <v>0.871</v>
+        <v>0.781</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I31" t="n">
-        <v>0.028</v>
+        <v>0.033</v>
       </c>
       <c r="J31" t="n">
-        <v>0.037</v>
+        <v>0.042</v>
       </c>
       <c r="K31" t="n">
-        <v>0.804</v>
+        <v>0.727</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.902</v>
       </c>
       <c r="P31" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.023</v>
+        <v>0.034</v>
       </c>
       <c r="R31" t="n">
-        <v>0.031</v>
+        <v>0.042</v>
       </c>
       <c r="S31" t="n">
-        <v>0.863</v>
+        <v>0.733</v>
       </c>
       <c r="T31" t="n">
         <v>5</v>
@@ -2463,52 +2463,52 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04</v>
+        <v>0.054</v>
       </c>
       <c r="F32" t="n">
-        <v>0.052</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.353</v>
+        <v>0.394</v>
       </c>
       <c r="H32" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="I32" t="n">
-        <v>0.041</v>
+        <v>0.055</v>
       </c>
       <c r="J32" t="n">
-        <v>0.054</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>0.301</v>
+        <v>0.364</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.398</v>
       </c>
       <c r="P32" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="R32" t="n">
-        <v>0.051</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="T32" t="n">
         <v>6</v>
@@ -2527,52 +2527,52 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E33" t="n">
         <v>0.031</v>
       </c>
       <c r="F33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.038</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.039</v>
-      </c>
       <c r="K33" t="n">
-        <v>0.871</v>
+        <v>0.894</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="P33" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="R33" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="S33" t="n">
-        <v>0.873</v>
+        <v>0.883</v>
       </c>
       <c r="T33" t="n">
         <v>6</v>
@@ -2594,37 +2594,37 @@
         <v>0.004</v>
       </c>
       <c r="E34" t="n">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="F34" t="n">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.454</v>
+        <v>0.315</v>
       </c>
       <c r="H34" t="n">
         <v>0.004</v>
       </c>
       <c r="I34" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="J34" t="n">
         <v>0.065</v>
       </c>
       <c r="K34" t="n">
-        <v>0.434</v>
+        <v>0.299</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.184</v>
       </c>
       <c r="P34" t="n">
         <v>0.004</v>
@@ -2633,10 +2633,10 @@
         <v>0.048</v>
       </c>
       <c r="R34" t="n">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
       <c r="S34" t="n">
-        <v>0.441</v>
+        <v>0.31</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -2658,49 +2658,49 @@
         <v>0.002</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="G35" t="n">
-        <v>0.869</v>
+        <v>0.827</v>
       </c>
       <c r="H35" t="n">
         <v>0.002</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="J35" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="K35" t="n">
-        <v>0.875</v>
+        <v>0.79</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.803</v>
       </c>
       <c r="P35" t="n">
         <v>0.002</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.029</v>
+        <v>0.032</v>
       </c>
       <c r="R35" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="S35" t="n">
-        <v>0.88</v>
+        <v>0.801</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -2722,49 +2722,49 @@
         <v>0.003</v>
       </c>
       <c r="E36" t="n">
-        <v>0.039</v>
+        <v>0.046</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05</v>
+        <v>0.058</v>
       </c>
       <c r="G36" t="n">
-        <v>0.434</v>
+        <v>0.396</v>
       </c>
       <c r="H36" t="n">
         <v>0.003</v>
       </c>
       <c r="I36" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="J36" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="K36" t="n">
-        <v>0.337</v>
+        <v>0.391</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.627</v>
       </c>
       <c r="P36" t="n">
         <v>0.003</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.04</v>
+        <v>0.047</v>
       </c>
       <c r="R36" t="n">
-        <v>0.051</v>
+        <v>0.059</v>
       </c>
       <c r="S36" t="n">
-        <v>0.429</v>
+        <v>0.39</v>
       </c>
       <c r="T36" t="n">
         <v>8</v>
@@ -2783,52 +2783,52 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
       <c r="F37" t="n">
-        <v>0.039</v>
+        <v>0.035</v>
       </c>
       <c r="G37" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="H37" t="n">
         <v>0.001</v>
       </c>
       <c r="I37" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="J37" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="K37" t="n">
-        <v>0.857</v>
+        <v>0.836</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="P37" t="n">
         <v>0.001</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="R37" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="S37" t="n">
-        <v>0.855</v>
+        <v>0.833</v>
       </c>
       <c r="T37" t="n">
         <v>8</v>
@@ -2847,52 +2847,52 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E38" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="F38" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="G38" t="n">
-        <v>0.413</v>
+        <v>0.44</v>
       </c>
       <c r="H38" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I38" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="J38" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="K38" t="n">
-        <v>0.391</v>
+        <v>0.436</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.619</v>
       </c>
       <c r="P38" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="R38" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="S38" t="n">
-        <v>0.401</v>
+        <v>0.437</v>
       </c>
       <c r="T38" t="n">
         <v>9</v>
@@ -2917,46 +2917,46 @@
         <v>0.03</v>
       </c>
       <c r="F39" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="G39" t="n">
-        <v>0.868</v>
+        <v>0.872</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I39" t="n">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="J39" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="K39" t="n">
-        <v>0.864</v>
+        <v>0.858</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="P39" t="n">
         <v>0.001</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="R39" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="S39" t="n">
-        <v>0.868</v>
+        <v>0.865</v>
       </c>
       <c r="T39" t="n">
         <v>9</v>
@@ -2975,52 +2975,52 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.003</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.616</v>
       </c>
       <c r="P40" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="R40" t="n">
-        <v>0.054</v>
+        <v>0.065</v>
       </c>
       <c r="S40" t="n">
-        <v>0.483</v>
+        <v>0.431</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3039,52 +3039,52 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="F41" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="G41" t="n">
-        <v>0.878</v>
+        <v>0.906</v>
       </c>
       <c r="H41" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I41" t="n">
-        <v>0.033</v>
+        <v>0.026</v>
       </c>
       <c r="J41" t="n">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
       <c r="K41" t="n">
-        <v>0.883</v>
+        <v>0.917</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.969</v>
       </c>
       <c r="P41" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="R41" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="S41" t="n">
-        <v>0.882</v>
+        <v>0.902</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3106,13 +3106,13 @@
         <v>0.004</v>
       </c>
       <c r="E42" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="F42" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="G42" t="n">
-        <v>0.52</v>
+        <v>0.385</v>
       </c>
       <c r="H42" t="n">
         <v>0.004</v>
@@ -3121,22 +3121,22 @@
         <v>0.046</v>
       </c>
       <c r="J42" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="K42" t="n">
-        <v>0.507</v>
+        <v>0.384</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.641</v>
       </c>
       <c r="P42" t="n">
         <v>0.004</v>
@@ -3145,10 +3145,10 @@
         <v>0.046</v>
       </c>
       <c r="R42" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="S42" t="n">
-        <v>0.511</v>
+        <v>0.38</v>
       </c>
       <c r="T42" t="n">
         <v>11</v>
@@ -3173,34 +3173,34 @@
         <v>0.033</v>
       </c>
       <c r="F43" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="G43" t="n">
-        <v>0.883</v>
+        <v>0.852</v>
       </c>
       <c r="H43" t="n">
         <v>0.002</v>
       </c>
       <c r="I43" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="K43" t="n">
-        <v>0.887</v>
+        <v>0.856</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.924</v>
       </c>
       <c r="P43" t="n">
         <v>0.002</v>
@@ -3209,10 +3209,10 @@
         <v>0.032</v>
       </c>
       <c r="R43" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="S43" t="n">
-        <v>0.886</v>
+        <v>0.857</v>
       </c>
       <c r="T43" t="n">
         <v>11</v>
@@ -3234,49 +3234,49 @@
         <v>0.003</v>
       </c>
       <c r="E44" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="F44" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="G44" t="n">
-        <v>0.61</v>
+        <v>0.608</v>
       </c>
       <c r="H44" t="n">
         <v>0.003</v>
       </c>
       <c r="I44" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="J44" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="K44" t="n">
-        <v>0.608</v>
+        <v>0.616</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="P44" t="n">
         <v>0.003</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="R44" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="S44" t="n">
-        <v>0.611</v>
+        <v>0.614</v>
       </c>
       <c r="T44" t="n">
         <v>12</v>
@@ -3295,52 +3295,52 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="F45" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="G45" t="n">
-        <v>0.86</v>
+        <v>0.911</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I45" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="J45" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="K45" t="n">
-        <v>0.855</v>
+        <v>0.914</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>0.971</v>
       </c>
       <c r="P45" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="R45" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="S45" t="n">
-        <v>0.865</v>
+        <v>0.91</v>
       </c>
       <c r="T45" t="n">
         <v>12</v>
@@ -3362,49 +3362,49 @@
         <v>0.003</v>
       </c>
       <c r="E46" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="F46" t="n">
         <v>0.058</v>
       </c>
       <c r="G46" t="n">
-        <v>0.605</v>
+        <v>0.63</v>
       </c>
       <c r="H46" t="n">
         <v>0.003</v>
       </c>
       <c r="I46" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="J46" t="n">
         <v>0.058</v>
       </c>
       <c r="K46" t="n">
-        <v>0.604</v>
+        <v>0.627</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.759</v>
       </c>
       <c r="P46" t="n">
         <v>0.003</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="R46" t="n">
         <v>0.058</v>
       </c>
       <c r="S46" t="n">
-        <v>0.605</v>
+        <v>0.629</v>
       </c>
       <c r="T46" t="n">
         <v>13</v>
@@ -3423,52 +3423,52 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E47" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="F47" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="G47" t="n">
-        <v>0.92</v>
+        <v>0.872</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I47" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="J47" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="K47" t="n">
-        <v>0.924</v>
+        <v>0.871</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>0.955</v>
       </c>
       <c r="P47" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
       <c r="R47" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="S47" t="n">
-        <v>0.923</v>
+        <v>0.871</v>
       </c>
       <c r="T47" t="n">
         <v>13</v>
@@ -3490,13 +3490,13 @@
         <v>0.003</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="F48" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="G48" t="n">
-        <v>0.524</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0.003</v>
@@ -3508,31 +3508,31 @@
         <v>0.053</v>
       </c>
       <c r="K48" t="n">
-        <v>0.51</v>
+        <v>0.573</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>0.706</v>
       </c>
       <c r="P48" t="n">
         <v>0.003</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="R48" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="S48" t="n">
-        <v>0.515</v>
+        <v>0.571</v>
       </c>
       <c r="T48" t="n">
         <v>14</v>
@@ -3551,52 +3551,52 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="G49" t="n">
-        <v>0.868</v>
+        <v>0.898</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="I49" t="n">
         <v>0.03</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="K49" t="n">
-        <v>0.865</v>
+        <v>0.893</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="P49" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="R49" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="S49" t="n">
-        <v>0.869</v>
+        <v>0.898</v>
       </c>
       <c r="T49" t="n">
         <v>14</v>

--- a/training_features/2024-12-06_00-04-14/scores_llama3.1_8b_0-shot_500.xlsx
+++ b/training_features/2024-12-06_00-04-14/scores_llama3.1_8b_0-shot_500.xlsx
@@ -540,55 +540,55 @@
         </is>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E2" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.043</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.049</v>
-      </c>
       <c r="N2" t="n">
-        <v>0.073</v>
+        <v>0.063</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2</v>
+        <v>0.142</v>
       </c>
       <c r="P2" t="n">
         <v>0.004</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="R2" t="n">
-        <v>0.059</v>
+        <v>0.064</v>
       </c>
       <c r="S2" t="n">
-        <v>0.465</v>
+        <v>0.105</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
@@ -604,55 +604,55 @@
         </is>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="E3" t="n">
-        <v>0.033</v>
+        <v>0.064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.039</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.751</v>
+        <v>0.036</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002</v>
+        <v>2.416852386597599e+18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04</v>
+        <v>351350478.914</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05</v>
+        <v>1554622908.167</v>
       </c>
       <c r="K3" t="n">
-        <v>0.597</v>
+        <v>-3.268253201457638e+20</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="M3" t="n">
-        <v>0.024</v>
+        <v>0.048</v>
       </c>
       <c r="N3" t="n">
-        <v>0.035</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.801</v>
+        <v>0.348</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.037</v>
+        <v>0.065</v>
       </c>
       <c r="R3" t="n">
-        <v>0.045</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>0.662</v>
+        <v>0.047</v>
       </c>
       <c r="T3" t="n">
         <v>3</v>
@@ -668,19 +668,19 @@
         </is>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.039</v>
+        <v>0.467</v>
       </c>
       <c r="H4" t="n">
         <v>0.004</v>
@@ -692,31 +692,31 @@
         <v>0.063</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.147</v>
+        <v>0.493</v>
       </c>
       <c r="L4" t="n">
         <v>0.003</v>
       </c>
       <c r="M4" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="N4" t="n">
         <v>0.056</v>
       </c>
       <c r="O4" t="n">
-        <v>0.081</v>
+        <v>0.609</v>
       </c>
       <c r="P4" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.043</v>
+        <v>0.049</v>
       </c>
       <c r="R4" t="n">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="S4" t="n">
-        <v>0.035</v>
+        <v>0.466</v>
       </c>
       <c r="T4" t="n">
         <v>4</v>
@@ -732,55 +732,55 @@
         </is>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E5" t="n">
-        <v>0.025</v>
+        <v>0.059</v>
       </c>
       <c r="F5" t="n">
-        <v>0.031</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.819</v>
+        <v>-0.196</v>
       </c>
       <c r="H5" t="n">
-        <v>1.232701842065906e+17</v>
+        <v>0.023</v>
       </c>
       <c r="I5" t="n">
-        <v>59346484.866</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>351098539.169</v>
+        <v>0.15</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.293991644178114e+19</v>
+        <v>-2.735</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="M5" t="n">
-        <v>0.024</v>
+        <v>0.047</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03</v>
+        <v>0.075</v>
       </c>
       <c r="O5" t="n">
-        <v>0.828</v>
+        <v>0.078</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.024</v>
+        <v>0.059</v>
       </c>
       <c r="R5" t="n">
-        <v>0.031</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8179999999999999</v>
+        <v>-0.228</v>
       </c>
       <c r="T5" t="n">
         <v>4</v>
@@ -796,55 +796,55 @@
         </is>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.048</v>
+        <v>0.056</v>
       </c>
       <c r="F6" t="n">
-        <v>0.062</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.402</v>
+        <v>0.092</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05</v>
+        <v>0.058</v>
       </c>
       <c r="J6" t="n">
-        <v>0.063</v>
+        <v>0.075</v>
       </c>
       <c r="K6" t="n">
-        <v>0.388</v>
+        <v>0.015</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="N6" t="n">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="O6" t="n">
-        <v>0.378</v>
+        <v>0.213</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05</v>
+        <v>0.056</v>
       </c>
       <c r="R6" t="n">
-        <v>0.065</v>
+        <v>0.073</v>
       </c>
       <c r="S6" t="n">
-        <v>0.347</v>
+        <v>0.075</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -860,55 +860,55 @@
         </is>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="E7" t="n">
-        <v>0.027</v>
+        <v>0.063</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.821</v>
+        <v>0.172</v>
       </c>
       <c r="H7" t="n">
-        <v>307140276741.591</v>
+        <v>0.008</v>
       </c>
       <c r="I7" t="n">
-        <v>83549.178</v>
+        <v>0.066</v>
       </c>
       <c r="J7" t="n">
-        <v>554202.379</v>
+        <v>0.091</v>
       </c>
       <c r="K7" t="n">
-        <v>-44927813650159.64</v>
+        <v>0.161</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="M7" t="n">
-        <v>0.013</v>
+        <v>0.053</v>
       </c>
       <c r="N7" t="n">
-        <v>0.018</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.95</v>
+        <v>0.238</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.026</v>
+        <v>0.06</v>
       </c>
       <c r="R7" t="n">
-        <v>0.034</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>0.827</v>
+        <v>0.231</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -924,55 +924,55 @@
         </is>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E8" t="n">
-        <v>0.036</v>
+        <v>0.046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.044</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.551</v>
+        <v>0.443</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="I8" t="n">
-        <v>0.036</v>
+        <v>0.046</v>
       </c>
       <c r="J8" t="n">
-        <v>0.044</v>
+        <v>0.062</v>
       </c>
       <c r="K8" t="n">
-        <v>0.548</v>
+        <v>0.403</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="M8" t="n">
-        <v>0.034</v>
+        <v>0.039</v>
       </c>
       <c r="N8" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.046</v>
       </c>
-      <c r="O8" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.037</v>
-      </c>
       <c r="R8" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="S8" t="n">
-        <v>0.529</v>
+        <v>0.437</v>
       </c>
       <c r="T8" t="n">
         <v>6</v>
@@ -988,55 +988,55 @@
         </is>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>0.034</v>
+        <v>0.068</v>
       </c>
       <c r="F9" t="n">
-        <v>0.041</v>
+        <v>0.098</v>
       </c>
       <c r="G9" t="n">
-        <v>0.85</v>
+        <v>0.017</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I9" t="n">
-        <v>0.029</v>
+        <v>0.067</v>
       </c>
       <c r="J9" t="n">
-        <v>0.038</v>
+        <v>0.1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.873</v>
+        <v>-0.019</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="M9" t="n">
-        <v>0.032</v>
+        <v>0.061</v>
       </c>
       <c r="N9" t="n">
-        <v>0.057</v>
+        <v>0.089</v>
       </c>
       <c r="O9" t="n">
-        <v>0.708</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.031</v>
+        <v>0.067</v>
       </c>
       <c r="R9" t="n">
-        <v>0.039</v>
+        <v>0.099</v>
       </c>
       <c r="S9" t="n">
-        <v>0.861</v>
+        <v>0.004</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1052,55 +1052,55 @@
         </is>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="F10" t="n">
-        <v>0.067</v>
+        <v>0.059</v>
       </c>
       <c r="G10" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="J10" t="n">
-        <v>0.068</v>
+        <v>0.06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.418</v>
+        <v>0.404</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="M10" t="n">
-        <v>0.041</v>
+        <v>0.033</v>
       </c>
       <c r="N10" t="n">
-        <v>0.063</v>
+        <v>0.045</v>
       </c>
       <c r="O10" t="n">
-        <v>0.493</v>
+        <v>0.672</v>
       </c>
       <c r="P10" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="R10" t="n">
-        <v>0.068</v>
+        <v>0.06</v>
       </c>
       <c r="S10" t="n">
-        <v>0.415</v>
+        <v>0.42</v>
       </c>
       <c r="T10" t="n">
         <v>7</v>
@@ -1116,55 +1116,55 @@
         </is>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="E11" t="n">
-        <v>0.032</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.041</v>
+        <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.854</v>
+        <v>0.31</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="I11" t="n">
-        <v>0.032</v>
+        <v>0.068</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04</v>
+        <v>0.089</v>
       </c>
       <c r="K11" t="n">
-        <v>0.861</v>
+        <v>0.331</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M11" t="n">
-        <v>0.015</v>
+        <v>0.042</v>
       </c>
       <c r="N11" t="n">
-        <v>0.021</v>
+        <v>0.066</v>
       </c>
       <c r="O11" t="n">
-        <v>0.961</v>
+        <v>0.628</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.032</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>0.041</v>
+        <v>0.091</v>
       </c>
       <c r="S11" t="n">
-        <v>0.857</v>
+        <v>0.302</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1180,55 +1180,55 @@
         </is>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E12" t="n">
-        <v>0.043</v>
+        <v>0.054</v>
       </c>
       <c r="F12" t="n">
-        <v>0.057</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.476</v>
+        <v>0.443</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="I12" t="n">
-        <v>0.044</v>
+        <v>0.053</v>
       </c>
       <c r="J12" t="n">
-        <v>0.057</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.472</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
         <v>0.003</v>
       </c>
       <c r="M12" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="N12" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.707</v>
       </c>
       <c r="P12" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.043</v>
+        <v>0.054</v>
       </c>
       <c r="R12" t="n">
-        <v>0.057</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S12" t="n">
-        <v>0.475</v>
+        <v>0.432</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1244,55 +1244,55 @@
         </is>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.032</v>
+        <v>0.06</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.842</v>
+        <v>0.143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="I13" t="n">
-        <v>0.034</v>
+        <v>0.063</v>
       </c>
       <c r="J13" t="n">
-        <v>0.043</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.821</v>
+        <v>0.039</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M13" t="n">
-        <v>0.019</v>
+        <v>0.033</v>
       </c>
       <c r="N13" t="n">
-        <v>0.032</v>
+        <v>0.058</v>
       </c>
       <c r="O13" t="n">
-        <v>0.899</v>
+        <v>0.549</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.031</v>
+        <v>0.06</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="S13" t="n">
-        <v>0.843</v>
+        <v>0.138</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1308,55 +1308,55 @@
         </is>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.003</v>
       </c>
       <c r="E14" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="F14" t="n">
-        <v>0.057</v>
+        <v>0.053</v>
       </c>
       <c r="G14" t="n">
-        <v>0.408</v>
+        <v>0.441</v>
       </c>
       <c r="H14" t="n">
         <v>0.003</v>
       </c>
       <c r="I14" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="J14" t="n">
-        <v>0.058</v>
+        <v>0.052</v>
       </c>
       <c r="K14" t="n">
-        <v>0.396</v>
+        <v>0.447</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M14" t="n">
-        <v>0.035</v>
+        <v>0.028</v>
       </c>
       <c r="N14" t="n">
-        <v>0.057</v>
+        <v>0.038</v>
       </c>
       <c r="O14" t="n">
-        <v>0.414</v>
+        <v>0.71</v>
       </c>
       <c r="P14" t="n">
         <v>0.003</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="R14" t="n">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="S14" t="n">
-        <v>0.405</v>
+        <v>0.439</v>
       </c>
       <c r="T14" t="n">
         <v>9</v>
@@ -1372,55 +1372,55 @@
         </is>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03</v>
+        <v>0.062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.037</v>
+        <v>0.08</v>
       </c>
       <c r="G15" t="n">
-        <v>0.844</v>
+        <v>0.447</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="I15" t="n">
-        <v>0.031</v>
+        <v>0.062</v>
       </c>
       <c r="J15" t="n">
-        <v>0.038</v>
+        <v>0.079</v>
       </c>
       <c r="K15" t="n">
-        <v>0.838</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M15" t="n">
-        <v>0.012</v>
+        <v>0.042</v>
       </c>
       <c r="N15" t="n">
-        <v>0.016</v>
+        <v>0.067</v>
       </c>
       <c r="O15" t="n">
-        <v>0.971</v>
+        <v>0.619</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03</v>
+        <v>0.062</v>
       </c>
       <c r="R15" t="n">
-        <v>0.037</v>
+        <v>0.081</v>
       </c>
       <c r="S15" t="n">
-        <v>0.846</v>
+        <v>0.439</v>
       </c>
       <c r="T15" t="n">
         <v>9</v>
@@ -1436,55 +1436,55 @@
         </is>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E16" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="F16" t="n">
-        <v>0.061</v>
+        <v>0.055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.456</v>
+        <v>0.584</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I16" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="J16" t="n">
-        <v>0.061</v>
+        <v>0.055</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.593</v>
       </c>
       <c r="L16" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.003</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.004</v>
-      </c>
       <c r="Q16" t="n">
-        <v>0.047</v>
+        <v>0.044</v>
       </c>
       <c r="R16" t="n">
-        <v>0.061</v>
+        <v>0.056</v>
       </c>
       <c r="S16" t="n">
-        <v>0.456</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1500,55 +1500,55 @@
         </is>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="E17" t="n">
-        <v>0.028</v>
+        <v>0.074</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.104</v>
       </c>
       <c r="G17" t="n">
-        <v>0.888</v>
+        <v>0.329</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="I17" t="n">
-        <v>0.027</v>
+        <v>0.076</v>
       </c>
       <c r="J17" t="n">
-        <v>0.034</v>
+        <v>0.102</v>
       </c>
       <c r="K17" t="n">
-        <v>0.892</v>
+        <v>0.355</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="M17" t="n">
-        <v>0.012</v>
+        <v>0.054</v>
       </c>
       <c r="N17" t="n">
-        <v>0.019</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>0.966</v>
+        <v>0.54</v>
       </c>
       <c r="P17" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.026</v>
+        <v>0.075</v>
       </c>
       <c r="R17" t="n">
-        <v>0.034</v>
+        <v>0.103</v>
       </c>
       <c r="S17" t="n">
-        <v>0.894</v>
+        <v>0.341</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1564,55 +1564,55 @@
         </is>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="F18" t="n">
-        <v>0.067</v>
+        <v>0.058</v>
       </c>
       <c r="G18" t="n">
-        <v>0.186</v>
+        <v>0.489</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="I18" t="n">
-        <v>0.051</v>
+        <v>0.045</v>
       </c>
       <c r="J18" t="n">
-        <v>0.068</v>
+        <v>0.058</v>
       </c>
       <c r="K18" t="n">
-        <v>0.159</v>
+        <v>0.494</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="M18" t="n">
-        <v>0.041</v>
+        <v>0.035</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.049</v>
       </c>
       <c r="O18" t="n">
-        <v>0.138</v>
+        <v>0.631</v>
       </c>
       <c r="P18" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.051</v>
+        <v>0.045</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.058</v>
       </c>
       <c r="S18" t="n">
-        <v>0.153</v>
+        <v>0.495</v>
       </c>
       <c r="T18" t="n">
         <v>11</v>
@@ -1628,55 +1628,55 @@
         </is>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E19" t="n">
-        <v>0.028</v>
+        <v>0.064</v>
       </c>
       <c r="F19" t="n">
-        <v>0.037</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.908</v>
+        <v>0.498</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="I19" t="n">
-        <v>0.026</v>
+        <v>0.063</v>
       </c>
       <c r="J19" t="n">
-        <v>0.035</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.916</v>
+        <v>0.506</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="M19" t="n">
-        <v>0.017</v>
+        <v>0.04</v>
       </c>
       <c r="N19" t="n">
-        <v>0.028</v>
+        <v>0.067</v>
       </c>
       <c r="O19" t="n">
-        <v>0.949</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.028</v>
+        <v>0.063</v>
       </c>
       <c r="R19" t="n">
-        <v>0.037</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="S19" t="n">
-        <v>0.907</v>
+        <v>0.462</v>
       </c>
       <c r="T19" t="n">
         <v>11</v>
@@ -1692,55 +1692,55 @@
         </is>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="E20" t="n">
-        <v>0.046</v>
+        <v>0.037</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.047</v>
       </c>
       <c r="G20" t="n">
-        <v>0.452</v>
+        <v>0.603</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="I20" t="n">
-        <v>0.046</v>
+        <v>0.04</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06</v>
+        <v>0.049</v>
       </c>
       <c r="K20" t="n">
-        <v>0.45</v>
+        <v>0.555</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="M20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.036</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.053</v>
-      </c>
       <c r="O20" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.764</v>
       </c>
       <c r="P20" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="Q20" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="R20" t="n">
         <v>0.047</v>
       </c>
-      <c r="R20" t="n">
-        <v>0.061</v>
-      </c>
       <c r="S20" t="n">
-        <v>0.439</v>
+        <v>0.598</v>
       </c>
       <c r="T20" t="n">
         <v>12</v>
@@ -1756,55 +1756,55 @@
         </is>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03</v>
+        <v>0.063</v>
       </c>
       <c r="F21" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M21" t="n">
         <v>0.038</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.892</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.013</v>
-      </c>
       <c r="N21" t="n">
-        <v>0.019</v>
+        <v>0.064</v>
       </c>
       <c r="O21" t="n">
-        <v>0.973</v>
+        <v>0.714</v>
       </c>
       <c r="P21" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03</v>
+        <v>0.064</v>
       </c>
       <c r="R21" t="n">
-        <v>0.038</v>
+        <v>0.089</v>
       </c>
       <c r="S21" t="n">
-        <v>0.891</v>
+        <v>0.436</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -1820,55 +1820,55 @@
         </is>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="E22" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.049</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.064</v>
-      </c>
       <c r="G22" t="n">
-        <v>0.538</v>
+        <v>0.589</v>
       </c>
       <c r="H22" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="I22" t="n">
-        <v>0.048</v>
+        <v>0.037</v>
       </c>
       <c r="J22" t="n">
-        <v>0.064</v>
+        <v>0.049</v>
       </c>
       <c r="K22" t="n">
-        <v>0.544</v>
+        <v>0.6</v>
       </c>
       <c r="L22" t="n">
         <v>0.002</v>
       </c>
       <c r="M22" t="n">
-        <v>0.034</v>
+        <v>0.028</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="O22" t="n">
-        <v>0.725</v>
+        <v>0.665</v>
       </c>
       <c r="P22" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.048</v>
+        <v>0.037</v>
       </c>
       <c r="R22" t="n">
-        <v>0.064</v>
+        <v>0.049</v>
       </c>
       <c r="S22" t="n">
-        <v>0.543</v>
+        <v>0.597</v>
       </c>
       <c r="T22" t="n">
         <v>13</v>
@@ -1884,55 +1884,55 @@
         </is>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E23" t="n">
-        <v>0.029</v>
+        <v>0.06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.037</v>
+        <v>0.081</v>
       </c>
       <c r="G23" t="n">
-        <v>0.89</v>
+        <v>0.515</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="I23" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.028</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.015</v>
-      </c>
       <c r="N23" t="n">
-        <v>0.026</v>
+        <v>0.043</v>
       </c>
       <c r="O23" t="n">
-        <v>0.946</v>
+        <v>0.861</v>
       </c>
       <c r="P23" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.028</v>
+        <v>0.061</v>
       </c>
       <c r="R23" t="n">
-        <v>0.036</v>
+        <v>0.08</v>
       </c>
       <c r="S23" t="n">
-        <v>0.893</v>
+        <v>0.525</v>
       </c>
       <c r="T23" t="n">
         <v>13</v>
@@ -1948,46 +1948,46 @@
         </is>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0.003</v>
       </c>
       <c r="E24" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="G24" t="n">
-        <v>0.474</v>
+        <v>0.526</v>
       </c>
       <c r="H24" t="n">
         <v>0.003</v>
       </c>
       <c r="I24" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="J24" t="n">
         <v>0.058</v>
       </c>
       <c r="K24" t="n">
-        <v>0.485</v>
+        <v>0.527</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="M24" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="N24" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="O24" t="n">
-        <v>0.583</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q24" t="n">
         <v>0.046</v>
@@ -1996,7 +1996,7 @@
         <v>0.059</v>
       </c>
       <c r="S24" t="n">
-        <v>0.471</v>
+        <v>0.512</v>
       </c>
       <c r="T24" t="n">
         <v>14</v>
@@ -2012,55 +2012,55 @@
         </is>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03</v>
+        <v>0.064</v>
       </c>
       <c r="F25" t="n">
-        <v>0.038</v>
+        <v>0.091</v>
       </c>
       <c r="G25" t="n">
-        <v>0.861</v>
+        <v>0.427</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="I25" t="n">
-        <v>0.029</v>
+        <v>0.063</v>
       </c>
       <c r="J25" t="n">
-        <v>0.037</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.865</v>
+        <v>0.469</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="M25" t="n">
-        <v>0.013</v>
+        <v>0.036</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02</v>
+        <v>0.063</v>
       </c>
       <c r="O25" t="n">
-        <v>0.961</v>
+        <v>0.728</v>
       </c>
       <c r="P25" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="R25" t="n">
-        <v>0.038</v>
+        <v>0.092</v>
       </c>
       <c r="S25" t="n">
-        <v>0.862</v>
+        <v>0.416</v>
       </c>
       <c r="T25" t="n">
         <v>14</v>
@@ -2076,55 +2076,55 @@
         </is>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E26" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06</v>
+        <v>0.054</v>
       </c>
       <c r="G26" t="n">
-        <v>0.478</v>
+        <v>0.309</v>
       </c>
       <c r="H26" t="n">
         <v>0.004</v>
       </c>
       <c r="I26" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="J26" t="n">
-        <v>0.063</v>
+        <v>0.059</v>
       </c>
       <c r="K26" t="n">
-        <v>0.426</v>
+        <v>0.182</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="M26" t="n">
-        <v>0.049</v>
+        <v>0.043</v>
       </c>
       <c r="N26" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.059</v>
       </c>
       <c r="O26" t="n">
-        <v>0.277</v>
+        <v>0.178</v>
       </c>
       <c r="P26" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.044</v>
+        <v>0.041</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="S26" t="n">
-        <v>0.473</v>
+        <v>0.285</v>
       </c>
       <c r="T26" t="n">
         <v>3</v>
@@ -2140,55 +2140,55 @@
         </is>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E27" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.03</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.781</v>
-      </c>
       <c r="H27" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="I27" t="n">
-        <v>0.028</v>
+        <v>0.064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.035</v>
+        <v>0.08</v>
       </c>
       <c r="K27" t="n">
-        <v>0.795</v>
+        <v>0.062</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="M27" t="n">
-        <v>0.015</v>
+        <v>0.06</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02</v>
+        <v>0.092</v>
       </c>
       <c r="O27" t="n">
-        <v>0.9370000000000001</v>
+        <v>-0.223</v>
       </c>
       <c r="P27" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.025</v>
+        <v>0.067</v>
       </c>
       <c r="R27" t="n">
-        <v>0.033</v>
+        <v>0.083</v>
       </c>
       <c r="S27" t="n">
-        <v>0.819</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="T27" t="n">
         <v>3</v>
@@ -2204,55 +2204,55 @@
         </is>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="E28" t="n">
-        <v>0.056</v>
+        <v>0.047</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="G28" t="n">
-        <v>0.289</v>
+        <v>0.226</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I28" t="n">
-        <v>0.056</v>
+        <v>0.05</v>
       </c>
       <c r="J28" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="K28" t="n">
-        <v>0.272</v>
+        <v>0.122</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="M28" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="N28" t="n">
-        <v>0.054</v>
+        <v>0.06</v>
       </c>
       <c r="O28" t="n">
-        <v>0.575</v>
+        <v>0.247</v>
       </c>
       <c r="P28" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.055</v>
+        <v>0.048</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.064</v>
       </c>
       <c r="S28" t="n">
-        <v>0.293</v>
+        <v>0.168</v>
       </c>
       <c r="T28" t="n">
         <v>4</v>
@@ -2268,55 +2268,55 @@
         </is>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E29" t="n">
-        <v>0.033</v>
+        <v>0.066</v>
       </c>
       <c r="F29" t="n">
-        <v>0.039</v>
+        <v>0.082</v>
       </c>
       <c r="G29" t="n">
-        <v>0.716</v>
+        <v>-0.118</v>
       </c>
       <c r="H29" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.495</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.002</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
-        <v>0.014</v>
+        <v>0.037</v>
       </c>
       <c r="N29" t="n">
-        <v>0.017</v>
+        <v>0.049</v>
       </c>
       <c r="O29" t="n">
-        <v>0.944</v>
+        <v>0.606</v>
       </c>
       <c r="P29" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.034</v>
+        <v>0.065</v>
       </c>
       <c r="R29" t="n">
-        <v>0.04</v>
+        <v>0.083</v>
       </c>
       <c r="S29" t="n">
-        <v>0.697</v>
+        <v>-0.138</v>
       </c>
       <c r="T29" t="n">
         <v>4</v>
@@ -2332,55 +2332,55 @@
         </is>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0.004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="F30" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="G30" t="n">
-        <v>0.163</v>
+        <v>0.391</v>
       </c>
       <c r="H30" t="n">
         <v>0.004</v>
       </c>
       <c r="I30" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Q30" t="n">
         <v>0.046</v>
       </c>
-      <c r="J30" t="n">
+      <c r="R30" t="n">
         <v>0.061</v>
       </c>
-      <c r="K30" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S30" t="n">
-        <v>0.133</v>
+        <v>0.371</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -2396,55 +2396,55 @@
         </is>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.031</v>
+        <v>0.067</v>
       </c>
       <c r="F31" t="n">
-        <v>0.038</v>
+        <v>0.093</v>
       </c>
       <c r="G31" t="n">
-        <v>0.781</v>
+        <v>0.166</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="I31" t="n">
-        <v>0.033</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>0.042</v>
+        <v>0.091</v>
       </c>
       <c r="K31" t="n">
-        <v>0.727</v>
+        <v>0.186</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="M31" t="n">
-        <v>0.018</v>
+        <v>0.044</v>
       </c>
       <c r="N31" t="n">
-        <v>0.025</v>
+        <v>0.067</v>
       </c>
       <c r="O31" t="n">
-        <v>0.902</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.034</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>0.042</v>
+        <v>0.091</v>
       </c>
       <c r="S31" t="n">
-        <v>0.733</v>
+        <v>0.19</v>
       </c>
       <c r="T31" t="n">
         <v>5</v>
@@ -2460,55 +2460,55 @@
         </is>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="E32" t="n">
-        <v>0.054</v>
+        <v>0.045</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.058</v>
       </c>
       <c r="G32" t="n">
-        <v>0.394</v>
+        <v>0.345</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="I32" t="n">
-        <v>0.055</v>
+        <v>0.046</v>
       </c>
       <c r="J32" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.059</v>
       </c>
       <c r="K32" t="n">
-        <v>0.364</v>
+        <v>0.325</v>
       </c>
       <c r="L32" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="M32" t="n">
-        <v>0.047</v>
+        <v>0.034</v>
       </c>
       <c r="N32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="O32" t="n">
-        <v>0.398</v>
+        <v>0.467</v>
       </c>
       <c r="P32" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.059</v>
       </c>
       <c r="S32" t="n">
-        <v>0.373</v>
+        <v>0.322</v>
       </c>
       <c r="T32" t="n">
         <v>6</v>
@@ -2524,55 +2524,55 @@
         </is>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="E33" t="n">
-        <v>0.031</v>
+        <v>0.073</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04</v>
+        <v>0.103</v>
       </c>
       <c r="G33" t="n">
-        <v>0.881</v>
+        <v>0.262</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="I33" t="n">
-        <v>0.028</v>
+        <v>0.076</v>
       </c>
       <c r="J33" t="n">
-        <v>0.038</v>
+        <v>0.115</v>
       </c>
       <c r="K33" t="n">
-        <v>0.894</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="M33" t="n">
-        <v>0.012</v>
+        <v>0.055</v>
       </c>
       <c r="N33" t="n">
-        <v>0.016</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>0.98</v>
+        <v>0.472</v>
       </c>
       <c r="P33" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.029</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="R33" t="n">
-        <v>0.04</v>
+        <v>0.103</v>
       </c>
       <c r="S33" t="n">
-        <v>0.883</v>
+        <v>0.258</v>
       </c>
       <c r="T33" t="n">
         <v>6</v>
@@ -2588,55 +2588,55 @@
         </is>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0.004</v>
       </c>
       <c r="E34" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="F34" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G34" t="n">
-        <v>0.315</v>
+        <v>0.43</v>
       </c>
       <c r="H34" t="n">
         <v>0.004</v>
       </c>
       <c r="I34" t="n">
-        <v>0.049</v>
+        <v>0.046</v>
       </c>
       <c r="J34" t="n">
-        <v>0.065</v>
+        <v>0.062</v>
       </c>
       <c r="K34" t="n">
-        <v>0.299</v>
+        <v>0.381</v>
       </c>
       <c r="L34" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="M34" t="n">
-        <v>0.045</v>
+        <v>0.033</v>
       </c>
       <c r="N34" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.051</v>
       </c>
       <c r="O34" t="n">
-        <v>0.184</v>
+        <v>0.59</v>
       </c>
       <c r="P34" t="n">
         <v>0.004</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="R34" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="S34" t="n">
-        <v>0.31</v>
+        <v>0.421</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -2652,55 +2652,55 @@
         </is>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="E35" t="n">
-        <v>0.029</v>
+        <v>0.063</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.827</v>
+        <v>0.35</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>0.033</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>0.044</v>
+        <v>0.094</v>
       </c>
       <c r="K35" t="n">
-        <v>0.79</v>
+        <v>0.264</v>
       </c>
       <c r="L35" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="M35" t="n">
-        <v>0.022</v>
+        <v>0.047</v>
       </c>
       <c r="N35" t="n">
-        <v>0.043</v>
+        <v>0.074</v>
       </c>
       <c r="O35" t="n">
-        <v>0.803</v>
+        <v>0.544</v>
       </c>
       <c r="P35" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.032</v>
+        <v>0.063</v>
       </c>
       <c r="R35" t="n">
-        <v>0.043</v>
+        <v>0.089</v>
       </c>
       <c r="S35" t="n">
-        <v>0.801</v>
+        <v>0.336</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -2716,55 +2716,55 @@
         </is>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0.003</v>
       </c>
       <c r="E36" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="F36" t="n">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="G36" t="n">
-        <v>0.396</v>
+        <v>0.451</v>
       </c>
       <c r="H36" t="n">
         <v>0.003</v>
       </c>
       <c r="I36" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="J36" t="n">
-        <v>0.059</v>
+        <v>0.053</v>
       </c>
       <c r="K36" t="n">
-        <v>0.391</v>
+        <v>0.453</v>
       </c>
       <c r="L36" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M36" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.031</v>
       </c>
-      <c r="N36" t="n">
-        <v>0.046</v>
-      </c>
       <c r="O36" t="n">
-        <v>0.627</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="P36" t="n">
         <v>0.003</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.047</v>
+        <v>0.041</v>
       </c>
       <c r="R36" t="n">
-        <v>0.059</v>
+        <v>0.054</v>
       </c>
       <c r="S36" t="n">
-        <v>0.39</v>
+        <v>0.442</v>
       </c>
       <c r="T36" t="n">
         <v>8</v>
@@ -2780,55 +2780,55 @@
         </is>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E37" t="n">
-        <v>0.027</v>
+        <v>0.055</v>
       </c>
       <c r="F37" t="n">
-        <v>0.035</v>
+        <v>0.068</v>
       </c>
       <c r="G37" t="n">
-        <v>0.83</v>
+        <v>0.398</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="I37" t="n">
-        <v>0.027</v>
+        <v>0.055</v>
       </c>
       <c r="J37" t="n">
-        <v>0.035</v>
+        <v>0.068</v>
       </c>
       <c r="K37" t="n">
-        <v>0.836</v>
+        <v>0.401</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="M37" t="n">
-        <v>0.012</v>
+        <v>0.034</v>
       </c>
       <c r="N37" t="n">
-        <v>0.017</v>
+        <v>0.047</v>
       </c>
       <c r="O37" t="n">
-        <v>0.96</v>
+        <v>0.708</v>
       </c>
       <c r="P37" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.027</v>
+        <v>0.054</v>
       </c>
       <c r="R37" t="n">
-        <v>0.035</v>
+        <v>0.067</v>
       </c>
       <c r="S37" t="n">
-        <v>0.833</v>
+        <v>0.405</v>
       </c>
       <c r="T37" t="n">
         <v>8</v>
@@ -2844,55 +2844,55 @@
         </is>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E38" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G38" t="n">
-        <v>0.44</v>
+        <v>0.503</v>
       </c>
       <c r="H38" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I38" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="K38" t="n">
-        <v>0.436</v>
+        <v>0.508</v>
       </c>
       <c r="L38" t="n">
         <v>0.002</v>
       </c>
       <c r="M38" t="n">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="N38" t="n">
-        <v>0.049</v>
+        <v>0.043</v>
       </c>
       <c r="O38" t="n">
-        <v>0.619</v>
+        <v>0.707</v>
       </c>
       <c r="P38" t="n">
         <v>0.004</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="R38" t="n">
         <v>0.06</v>
       </c>
       <c r="S38" t="n">
-        <v>0.437</v>
+        <v>0.414</v>
       </c>
       <c r="T38" t="n">
         <v>9</v>
@@ -2908,55 +2908,55 @@
         </is>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03</v>
+        <v>0.061</v>
       </c>
       <c r="F39" t="n">
-        <v>0.037</v>
+        <v>0.08</v>
       </c>
       <c r="G39" t="n">
-        <v>0.872</v>
+        <v>0.345</v>
       </c>
       <c r="H39" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="I39" t="n">
-        <v>0.031</v>
+        <v>0.068</v>
       </c>
       <c r="J39" t="n">
-        <v>0.039</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>0.858</v>
+        <v>0.196</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="M39" t="n">
-        <v>0.016</v>
+        <v>0.033</v>
       </c>
       <c r="N39" t="n">
-        <v>0.026</v>
+        <v>0.06</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="P39" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="R39" t="n">
-        <v>0.038</v>
+        <v>0.079</v>
       </c>
       <c r="S39" t="n">
-        <v>0.865</v>
+        <v>0.355</v>
       </c>
       <c r="T39" t="n">
         <v>9</v>
@@ -2972,55 +2972,55 @@
         </is>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0.004</v>
       </c>
       <c r="E40" t="n">
-        <v>0.049</v>
+        <v>0.045</v>
       </c>
       <c r="F40" t="n">
-        <v>0.064</v>
+        <v>0.061</v>
       </c>
       <c r="G40" t="n">
-        <v>0.449</v>
+        <v>0.532</v>
       </c>
       <c r="H40" t="n">
         <v>0.004</v>
       </c>
       <c r="I40" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="J40" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="K40" t="n">
-        <v>0.464</v>
+        <v>0.541</v>
       </c>
       <c r="L40" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="M40" t="n">
-        <v>0.037</v>
+        <v>0.03</v>
       </c>
       <c r="N40" t="n">
-        <v>0.053</v>
+        <v>0.042</v>
       </c>
       <c r="O40" t="n">
-        <v>0.616</v>
+        <v>0.783</v>
       </c>
       <c r="P40" t="n">
         <v>0.004</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
       <c r="R40" t="n">
-        <v>0.065</v>
+        <v>0.061</v>
       </c>
       <c r="S40" t="n">
-        <v>0.431</v>
+        <v>0.538</v>
       </c>
       <c r="T40" t="n">
         <v>10</v>
@@ -3036,55 +3036,55 @@
         </is>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="E41" t="n">
-        <v>0.028</v>
+        <v>0.063</v>
       </c>
       <c r="F41" t="n">
-        <v>0.036</v>
+        <v>0.09</v>
       </c>
       <c r="G41" t="n">
-        <v>0.906</v>
+        <v>0.495</v>
       </c>
       <c r="H41" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="I41" t="n">
-        <v>0.026</v>
+        <v>0.06</v>
       </c>
       <c r="J41" t="n">
-        <v>0.034</v>
+        <v>0.082</v>
       </c>
       <c r="K41" t="n">
-        <v>0.917</v>
+        <v>0.576</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="M41" t="n">
-        <v>0.014</v>
+        <v>0.052</v>
       </c>
       <c r="N41" t="n">
-        <v>0.021</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="O41" t="n">
-        <v>0.969</v>
+        <v>0.54</v>
       </c>
       <c r="P41" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.028</v>
+        <v>0.06</v>
       </c>
       <c r="R41" t="n">
-        <v>0.036</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="S41" t="n">
-        <v>0.902</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="T41" t="n">
         <v>10</v>
@@ -3100,55 +3100,55 @@
         </is>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E42" t="n">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="F42" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="G42" t="n">
-        <v>0.385</v>
+        <v>0.44</v>
       </c>
       <c r="H42" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I42" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="J42" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="K42" t="n">
-        <v>0.384</v>
+        <v>0.442</v>
       </c>
       <c r="L42" t="n">
         <v>0.002</v>
       </c>
       <c r="M42" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="N42" t="n">
         <v>0.047</v>
       </c>
       <c r="O42" t="n">
-        <v>0.641</v>
+        <v>0.62</v>
       </c>
       <c r="P42" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="R42" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="S42" t="n">
-        <v>0.38</v>
+        <v>0.436</v>
       </c>
       <c r="T42" t="n">
         <v>11</v>
@@ -3164,55 +3164,55 @@
         </is>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E43" t="n">
-        <v>0.033</v>
+        <v>0.058</v>
       </c>
       <c r="F43" t="n">
-        <v>0.042</v>
+        <v>0.077</v>
       </c>
       <c r="G43" t="n">
-        <v>0.852</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="I43" t="n">
-        <v>0.033</v>
+        <v>0.059</v>
       </c>
       <c r="J43" t="n">
-        <v>0.042</v>
+        <v>0.077</v>
       </c>
       <c r="K43" t="n">
-        <v>0.856</v>
+        <v>0.552</v>
       </c>
       <c r="L43" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="M43" t="n">
-        <v>0.018</v>
+        <v>0.031</v>
       </c>
       <c r="N43" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O43" t="n">
-        <v>0.924</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="P43" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.032</v>
+        <v>0.06</v>
       </c>
       <c r="R43" t="n">
-        <v>0.042</v>
+        <v>0.079</v>
       </c>
       <c r="S43" t="n">
-        <v>0.857</v>
+        <v>0.537</v>
       </c>
       <c r="T43" t="n">
         <v>11</v>
@@ -3228,55 +3228,55 @@
         </is>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E44" t="n">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="F44" t="n">
-        <v>0.057</v>
+        <v>0.066</v>
       </c>
       <c r="G44" t="n">
-        <v>0.608</v>
+        <v>0.362</v>
       </c>
       <c r="H44" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I44" t="n">
-        <v>0.042</v>
+        <v>0.049</v>
       </c>
       <c r="J44" t="n">
-        <v>0.056</v>
+        <v>0.067</v>
       </c>
       <c r="K44" t="n">
-        <v>0.616</v>
+        <v>0.344</v>
       </c>
       <c r="L44" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="M44" t="n">
-        <v>0.026</v>
+        <v>0.038</v>
       </c>
       <c r="N44" t="n">
-        <v>0.041</v>
+        <v>0.06</v>
       </c>
       <c r="O44" t="n">
-        <v>0.791</v>
+        <v>0.464</v>
       </c>
       <c r="P44" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.043</v>
+        <v>0.049</v>
       </c>
       <c r="R44" t="n">
-        <v>0.056</v>
+        <v>0.067</v>
       </c>
       <c r="S44" t="n">
-        <v>0.614</v>
+        <v>0.344</v>
       </c>
       <c r="T44" t="n">
         <v>12</v>
@@ -3292,55 +3292,55 @@
         </is>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03</v>
+        <v>0.054</v>
       </c>
       <c r="F45" t="n">
-        <v>0.037</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.911</v>
+        <v>0.433</v>
       </c>
       <c r="H45" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="I45" t="n">
-        <v>0.029</v>
+        <v>0.053</v>
       </c>
       <c r="J45" t="n">
-        <v>0.037</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>0.914</v>
+        <v>0.407</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="M45" t="n">
-        <v>0.015</v>
+        <v>0.032</v>
       </c>
       <c r="N45" t="n">
-        <v>0.021</v>
+        <v>0.05</v>
       </c>
       <c r="O45" t="n">
-        <v>0.971</v>
+        <v>0.706</v>
       </c>
       <c r="P45" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.029</v>
+        <v>0.053</v>
       </c>
       <c r="R45" t="n">
-        <v>0.037</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="S45" t="n">
-        <v>0.91</v>
+        <v>0.438</v>
       </c>
       <c r="T45" t="n">
         <v>12</v>
@@ -3356,55 +3356,55 @@
         </is>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.003</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.002</v>
-      </c>
       <c r="M46" t="n">
-        <v>0.031</v>
+        <v>0.035</v>
       </c>
       <c r="N46" t="n">
-        <v>0.047</v>
+        <v>0.051</v>
       </c>
       <c r="O46" t="n">
-        <v>0.759</v>
+        <v>0.636</v>
       </c>
       <c r="P46" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.043</v>
+        <v>0.052</v>
       </c>
       <c r="R46" t="n">
-        <v>0.058</v>
+        <v>0.067</v>
       </c>
       <c r="S46" t="n">
-        <v>0.629</v>
+        <v>0.378</v>
       </c>
       <c r="T46" t="n">
         <v>13</v>
@@ -3420,55 +3420,55 @@
         </is>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.039</v>
+        <v>0.098</v>
       </c>
       <c r="G47" t="n">
-        <v>0.872</v>
+        <v>0.442</v>
       </c>
       <c r="H47" t="n">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>0.03</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.039</v>
+        <v>0.095</v>
       </c>
       <c r="K47" t="n">
-        <v>0.871</v>
+        <v>0.479</v>
       </c>
       <c r="L47" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="M47" t="n">
-        <v>0.014</v>
+        <v>0.044</v>
       </c>
       <c r="N47" t="n">
-        <v>0.023</v>
+        <v>0.073</v>
       </c>
       <c r="O47" t="n">
-        <v>0.955</v>
+        <v>0.694</v>
       </c>
       <c r="P47" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.029</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R47" t="n">
-        <v>0.039</v>
+        <v>0.097</v>
       </c>
       <c r="S47" t="n">
-        <v>0.871</v>
+        <v>0.448</v>
       </c>
       <c r="T47" t="n">
         <v>13</v>
@@ -3484,31 +3484,31 @@
         </is>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E48" t="n">
-        <v>0.041</v>
+        <v>0.047</v>
       </c>
       <c r="F48" t="n">
-        <v>0.054</v>
+        <v>0.062</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.526</v>
       </c>
       <c r="H48" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04</v>
+        <v>0.047</v>
       </c>
       <c r="J48" t="n">
-        <v>0.053</v>
+        <v>0.062</v>
       </c>
       <c r="K48" t="n">
-        <v>0.573</v>
+        <v>0.518</v>
       </c>
       <c r="L48" t="n">
         <v>0.002</v>
@@ -3517,22 +3517,22 @@
         <v>0.03</v>
       </c>
       <c r="N48" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="O48" t="n">
-        <v>0.706</v>
+        <v>0.769</v>
       </c>
       <c r="P48" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.041</v>
+        <v>0.047</v>
       </c>
       <c r="R48" t="n">
-        <v>0.054</v>
+        <v>0.063</v>
       </c>
       <c r="S48" t="n">
-        <v>0.571</v>
+        <v>0.512</v>
       </c>
       <c r="T48" t="n">
         <v>14</v>
@@ -3548,55 +3548,55 @@
         </is>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E49" t="n">
-        <v>0.029</v>
+        <v>0.059</v>
       </c>
       <c r="F49" t="n">
-        <v>0.037</v>
+        <v>0.082</v>
       </c>
       <c r="G49" t="n">
-        <v>0.898</v>
+        <v>0.443</v>
       </c>
       <c r="H49" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="J49" t="n">
-        <v>0.038</v>
+        <v>0.082</v>
       </c>
       <c r="K49" t="n">
-        <v>0.893</v>
+        <v>0.448</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M49" t="n">
-        <v>0.014</v>
+        <v>0.043</v>
       </c>
       <c r="N49" t="n">
-        <v>0.019</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="O49" t="n">
-        <v>0.973</v>
+        <v>0.581</v>
       </c>
       <c r="P49" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.028</v>
+        <v>0.058</v>
       </c>
       <c r="R49" t="n">
-        <v>0.037</v>
+        <v>0.082</v>
       </c>
       <c r="S49" t="n">
-        <v>0.898</v>
+        <v>0.45</v>
       </c>
       <c r="T49" t="n">
         <v>14</v>
